--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,44 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Voice-Act\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tom</t>
   </si>
   <si>
-    <t>Marry</t>
+    <t>Marrhknmy</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>bje</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>ughhh</t>
+  </si>
+  <si>
+    <t>eww</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,15 +95,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -352,36 +402,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -159,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -491,4 +492,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,64 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Voice-Act\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dion\Desktop\spcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Tom</t>
   </si>
   <si>
-    <t>Marrhknmy</t>
-  </si>
-  <si>
-    <t>hey</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>cry</t>
-  </si>
-  <si>
-    <t>bje</t>
-  </si>
-  <si>
-    <t>haha</t>
-  </si>
-  <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>ughhh</t>
-  </si>
-  <si>
-    <t>eww</t>
+    <t>Ma</t>
   </si>
 </sst>
 </file>
@@ -105,7 +67,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -160,7 +122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,7 +157,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,144 +366,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <f>SUM(C2:C7)</f>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>29</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>47</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <f>ABS(D2)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dion\Desktop\spcc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14810" xWindow="240" yWindow="110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Tom</t>
   </si>
@@ -30,19 +25,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,24 +54,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -365,87 +352,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C1">
+    <row r="1" spans="1:4">
+      <c r="C1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1">
+        <f>ABS(C2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <f>SUM(C2:C7)</f>
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v/>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>29</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="B4">
         <f>SUM(B2:B3)</f>
-        <v>47</v>
-      </c>
-      <c r="C4">
+        <v/>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C5">
+    <row r="5" spans="1:4">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C6">
+    <row r="6" spans="1:4">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C7">
+    <row r="7" spans="1:4">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C8">
+    <row r="8" spans="1:4">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="B9">
         <f>ABS(D2)</f>
-        <v>0</v>
-      </c>
-      <c r="C9">
+        <v/>
+      </c>
+      <c r="C9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C10">
+    <row r="10" spans="1:4">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,44 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dion\Desktop\spcc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14810" xWindow="240" yWindow="110"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Tom</t>
+    <t>Number</t>
   </si>
   <si>
-    <t>Ma</t>
+    <t>Fact Ans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,15 +61,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,7 +160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,95 +368,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f>ABS(C2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>SUM(C2:C7)</f>
-        <v/>
+      <c r="D2">
+        <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>29</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4">
-        <f>SUM(B2:B3)</f>
-        <v/>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9">
-        <f>ABS(D2)</f>
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="n">
-        <v>4</v>
+      <c r="D3">
+        <f>FACT(D2)</f>
+        <v>40320</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>